--- a/config/let3back.xlsx
+++ b/config/let3back.xlsx
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
